--- a/Weekly-Report.xlsx
+++ b/Weekly-Report.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Group 1" sheetId="1" r:id="rId4"/>
     <sheet name="Group 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Group 3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Weekly Alert Driving Time Tracking Report</t>
   </si>
@@ -154,6 +155,30 @@
   </si>
   <si>
     <t>personM</t>
+  </si>
+  <si>
+    <t>Group 3</t>
+  </si>
+  <si>
+    <t>personN</t>
+  </si>
+  <si>
+    <t>personO</t>
+  </si>
+  <si>
+    <t>personP</t>
+  </si>
+  <si>
+    <t>personQ</t>
+  </si>
+  <si>
+    <t>personR</t>
+  </si>
+  <si>
+    <t>personS</t>
+  </si>
+  <si>
+    <t>personT</t>
   </si>
 </sst>
 </file>
@@ -1270,10 +1295,10 @@
         <v>31</v>
       </c>
       <c r="C38" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1281,10 +1306,10 @@
         <v>31</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1426,10 +1451,10 @@
         <v>33</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -1437,10 +1462,10 @@
         <v>33</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -1573,10 +1598,10 @@
         <v>31</v>
       </c>
       <c r="C65" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -1584,10 +1609,10 @@
         <v>31</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -1595,10 +1620,10 @@
         <v>31</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -1797,7 +1822,7 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -2474,10 +2499,10 @@
         <v>31</v>
       </c>
       <c r="C50" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2485,10 +2510,10 @@
         <v>31</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2588,4 +2613,1026 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:L71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="D71" sqref="D71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+    <col min="12" max="12" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5">
+        <v>8</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>7</v>
+      </c>
+      <c r="J7" s="5">
+        <v>8</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>33</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5">
+        <v>8</v>
+      </c>
+      <c r="J8" s="5">
+        <v>10</v>
+      </c>
+      <c r="K8" s="5">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>39</v>
+      </c>
+      <c r="G9" s="5">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5">
+        <v>8</v>
+      </c>
+      <c r="I9" s="5">
+        <v>7</v>
+      </c>
+      <c r="J9" s="5">
+        <v>8</v>
+      </c>
+      <c r="K9" s="5">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>40</v>
+      </c>
+      <c r="G10" s="5">
+        <v>7</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>11</v>
+      </c>
+      <c r="J10" s="5">
+        <v>14</v>
+      </c>
+      <c r="K10" s="5">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4">
+        <v>39</v>
+      </c>
+      <c r="G11" s="5">
+        <v>15</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>12</v>
+      </c>
+      <c r="J11" s="5">
+        <v>12</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4">
+        <v>51</v>
+      </c>
+      <c r="G12" s="12">
+        <v>28</v>
+      </c>
+      <c r="H12" s="5">
+        <v>12</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5</v>
+      </c>
+      <c r="K12" s="5">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>6.5</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="G13" s="5">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="I13" s="5">
+        <v>8</v>
+      </c>
+      <c r="J13" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="K13" s="5">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4">
+        <v>78</v>
+      </c>
+      <c r="C14" s="4">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>86</v>
+      </c>
+      <c r="F14" s="4">
+        <v>265.5</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="9">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="9">
+        <v>33</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8">
+        <v>3</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="9">
+        <v>39</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="8">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="9">
+        <v>40</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="8">
+        <v>15</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="9">
+        <v>39</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="8">
+        <v>28</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="9">
+        <v>51</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="8">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67">
+        <v>0.5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="10">
+        <v>40.5</v>
+      </c>
+      <c r="D71" s="11"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A16:D16"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>